--- a/DSSExcelTests/test-files/pairedData1.xlsx
+++ b/DSSExcelTests/test-files/pairedData1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DSSExcelPlugin\DSSExcelTests\test-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09BE59E-6CAF-41B7-A67A-7615623DEAD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5DCE93-EAF0-4C21-BFE0-E8C22320162C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="9300" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
-  <si>
-    <t>Labels</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t/>
   </si>
@@ -41,15 +38,23 @@
   </si>
   <si>
     <t>linear</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -83,10 +88,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +409,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,149 +421,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
+      <c r="A4" s="1">
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
+      <c r="A5" s="1">
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
+      <c r="A6" s="1">
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
+      <c r="A7" s="1">
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
+      <c r="A8" s="1">
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
+      <c r="A9" s="1">
+        <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
+      <c r="A10" s="1">
+        <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>